--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS3.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS3.xlsx
@@ -19,7 +19,217 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="134">
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
+  </si>
+  <si>
+    <t>Signal_Value_77</t>
+  </si>
+  <si>
+    <t>Signal_Value_78</t>
+  </si>
+  <si>
+    <t>Signal_Value_79</t>
+  </si>
+  <si>
+    <t>Signal_Value_80</t>
+  </si>
+  <si>
+    <t>Signal_Value_81</t>
+  </si>
+  <si>
+    <t>Signal_Value_82</t>
+  </si>
+  <si>
+    <t>Signal_Value_83</t>
+  </si>
+  <si>
+    <t>Signal_Value_84</t>
+  </si>
   <si>
     <t>Signal_Value_85</t>
   </si>
@@ -135,9 +345,6 @@
     <t>Signal_Value_122</t>
   </si>
   <si>
-    <t>Signal_Value_123</t>
-  </si>
-  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -210,10 +417,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -574,15 +778,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN6"/>
+  <dimension ref="A1:DE6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:109">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -701,10 +905,217 @@
       <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:109">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -713,100 +1124,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.00296293661419971</v>
+        <v>0.0331727256086372</v>
       </c>
       <c r="E2">
-        <v>0.006331708894247601</v>
+        <v>0.09978421847811625</v>
       </c>
       <c r="F2">
-        <v>0.01966540733295792</v>
+        <v>0.05909958501069627</v>
       </c>
       <c r="G2">
-        <v>0.002447562213599703</v>
+        <v>0.1376675928075893</v>
       </c>
       <c r="H2">
-        <v>0.04714961742998604</v>
+        <v>0.0117782554889904</v>
       </c>
       <c r="I2">
-        <v>0.0004944288325354707</v>
+        <v>0.0008332989207536238</v>
       </c>
       <c r="J2">
-        <v>0.02924136972021511</v>
+        <v>0.01068327079012431</v>
       </c>
       <c r="K2">
-        <v>0.001721050178363801</v>
+        <v>0.01218004875602419</v>
       </c>
       <c r="L2">
-        <v>0.02697068683156362</v>
+        <v>0.0962997392830883</v>
       </c>
       <c r="M2">
-        <v>0.06911084238270306</v>
+        <v>0.0954592420811677</v>
       </c>
       <c r="N2">
-        <v>0.02666248979561817</v>
+        <v>0.004363803886363622</v>
       </c>
       <c r="O2">
-        <v>0.188574820019363</v>
+        <v>0.002704789090699651</v>
       </c>
       <c r="P2">
-        <v>0.08431023028125238</v>
+        <v>0.005857141991767284</v>
       </c>
       <c r="Q2">
-        <v>0.01739959388632923</v>
+        <v>0.06024785325416595</v>
       </c>
       <c r="R2">
-        <v>0.0881548251208623</v>
+        <v>0.008420369792732477</v>
       </c>
       <c r="S2">
-        <v>0.06837420873685036</v>
+        <v>0.1021477583826966</v>
       </c>
       <c r="T2">
-        <v>0.07883025866052741</v>
+        <v>0.04304072742690721</v>
       </c>
       <c r="U2">
-        <v>0.01347672796279822</v>
+        <v>0.007773132605899149</v>
       </c>
       <c r="V2">
-        <v>0.03724036505844559</v>
+        <v>0.002327053366853631</v>
       </c>
       <c r="W2">
-        <v>0.07193334727048957</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.01591134754236948</v>
+        <v>0.008467660714460205</v>
       </c>
       <c r="Y2">
-        <v>0.003431569228679641</v>
+        <v>0.02400633172574052</v>
       </c>
       <c r="Z2">
-        <v>0.02263260472249944</v>
+        <v>0.0926998958797226</v>
       </c>
       <c r="AA2">
-        <v>0.02723696966492529</v>
+        <v>0.003885311302181011</v>
       </c>
       <c r="AB2">
-        <v>0.003420680736303184</v>
+        <v>0.006319095886467264</v>
       </c>
       <c r="AC2">
-        <v>0.0005255114731416915</v>
+        <v>0.005616391325979563</v>
       </c>
       <c r="AD2">
-        <v>0.0008802070016832438</v>
+        <v>0.04426519792617661</v>
       </c>
       <c r="AE2">
-        <v>0.000344586108316076</v>
+        <v>0.01600859200802729</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.0001772812337476613</v>
       </c>
       <c r="AG2">
-        <v>0.001597304920441409</v>
+        <v>2.366185371351132E-06</v>
       </c>
       <c r="AH2">
-        <v>0.01293125759612127</v>
+        <v>0.003683254544810304</v>
       </c>
       <c r="AI2">
-        <v>0.03003548378261093</v>
+        <v>0.001028014244042507</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -823,10 +1234,217 @@
       <c r="AN2">
         <v>0</v>
       </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:109">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -847,108 +1465,315 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01048226010694344</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.007896789559521623</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0149881690830551</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.08560881461906446</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.003067656713336294</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0966267807617269</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.003156869723585738</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0004897306030191717</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0863065976100001</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.001891352213983784</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.1366189048146214</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.07602715132098872</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.004163240465116235</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.04512768641668977</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.03595611048675868</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.133408729955443</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.04877217392614504</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.03013698835067028</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.08099521763988289</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.009077203976587156</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0003993946116869429</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.01340686994569311</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.01651333576083118</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.002452066821719195</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.821884413503632E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0004202452254498235</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.002421422489775376</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.791222242414962E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0004227764894738636</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.007290305929055349</v>
+        <v>0.08502288591113299</v>
       </c>
       <c r="AL3">
-        <v>0.02359712465908646</v>
+        <v>0.005533204515968404</v>
       </c>
       <c r="AM3">
-        <v>0.02224189865352962</v>
+        <v>0.1023211638660121</v>
       </c>
       <c r="AN3">
+        <v>0.1087387334144319</v>
+      </c>
+      <c r="AO3">
+        <v>0.01986202843606105</v>
+      </c>
+      <c r="AP3">
+        <v>0.002005953008458146</v>
+      </c>
+      <c r="AQ3">
+        <v>0.0003600472496805259</v>
+      </c>
+      <c r="AR3">
+        <v>0.04452914076246632</v>
+      </c>
+      <c r="AS3">
+        <v>0.1616679869634696</v>
+      </c>
+      <c r="AT3">
+        <v>0.004019775589881524</v>
+      </c>
+      <c r="AU3">
+        <v>0.03247646099404919</v>
+      </c>
+      <c r="AV3">
+        <v>0.008241491835577935</v>
+      </c>
+      <c r="AW3">
+        <v>0.0001777443412904436</v>
+      </c>
+      <c r="AX3">
+        <v>0.0312860670280489</v>
+      </c>
+      <c r="AY3">
+        <v>0.01258326005028514</v>
+      </c>
+      <c r="AZ3">
+        <v>0.112685495648852</v>
+      </c>
+      <c r="BA3">
+        <v>0.03334355202839391</v>
+      </c>
+      <c r="BB3">
+        <v>2.642749735416373E-05</v>
+      </c>
+      <c r="BC3">
+        <v>2.642749735416373E-05</v>
+      </c>
+      <c r="BD3">
+        <v>0.001437468165813915</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0.04944643670578863</v>
+      </c>
+      <c r="BG3">
+        <v>0.1228326080538242</v>
+      </c>
+      <c r="BH3">
+        <v>0.0006492350209919046</v>
+      </c>
+      <c r="BI3">
+        <v>0.006555112505426944</v>
+      </c>
+      <c r="BJ3">
+        <v>0.00287670843926429</v>
+      </c>
+      <c r="BK3">
+        <v>0.0332661862709422</v>
+      </c>
+      <c r="BL3">
+        <v>0.008841282465592196</v>
+      </c>
+      <c r="BM3">
+        <v>0.0004451498865079096</v>
+      </c>
+      <c r="BN3">
+        <v>0.001958981370148052</v>
+      </c>
+      <c r="BO3">
+        <v>0.00362886826828224</v>
+      </c>
+      <c r="BP3">
+        <v>0.003154116208648956</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:109">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -960,76 +1785,76 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01057104019376556</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.02088891483478024</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002479283706082059</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.06140175700339763</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01635873716851344</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03517724597318906</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01193997275188264</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.01097536457528145</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.06416358270354502</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.01640637205090765</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1694965215177327</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.04884999412106763</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.01291144168352924</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.04484460025358194</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0387006406463595</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.1426097388632915</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.05496982137311751</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0327114107814367</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.08823339204299642</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.01652997051259912</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.002111261070757168</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01795915033316611</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.01959243207897102</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.001810702200246281</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1038,22 +1863,22 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.001018120679731173</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0002649296690708364</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.002577024566180349</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.00946627676486708</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.02404116003299953</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.02093913984695352</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1067,10 +1892,217 @@
       <c r="AN4">
         <v>0</v>
       </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0.07477794854000901</v>
+      </c>
+      <c r="CA4">
+        <v>0.01258985540103505</v>
+      </c>
+      <c r="CB4">
+        <v>0.2980271144880777</v>
+      </c>
+      <c r="CC4">
+        <v>0.001834089922438851</v>
+      </c>
+      <c r="CD4">
+        <v>0.003700427626417664</v>
+      </c>
+      <c r="CE4">
+        <v>0.01910687232336368</v>
+      </c>
+      <c r="CF4">
+        <v>0.01669324673561058</v>
+      </c>
+      <c r="CG4">
+        <v>0.04724521931935903</v>
+      </c>
+      <c r="CH4">
+        <v>0.085651690315743</v>
+      </c>
+      <c r="CI4">
+        <v>0.01737384772372223</v>
+      </c>
+      <c r="CJ4">
+        <v>0.006883998868641566</v>
+      </c>
+      <c r="CK4">
+        <v>0.08417346771821775</v>
+      </c>
+      <c r="CL4">
+        <v>0.007534395663876029</v>
+      </c>
+      <c r="CM4">
+        <v>0.01343515316720557</v>
+      </c>
+      <c r="CN4">
+        <v>0.003578504395190236</v>
+      </c>
+      <c r="CO4">
+        <v>0.00850623098000214</v>
+      </c>
+      <c r="CP4">
+        <v>0.01333067700629231</v>
+      </c>
+      <c r="CQ4">
+        <v>0.02047960784413243</v>
+      </c>
+      <c r="CR4">
+        <v>0.0003057637610168744</v>
+      </c>
+      <c r="CS4">
+        <v>0.00356954128909985</v>
+      </c>
+      <c r="CT4">
+        <v>0.001906107481761659</v>
+      </c>
+      <c r="CU4">
+        <v>0.06869151917736292</v>
+      </c>
+      <c r="CV4">
+        <v>0.03680019927129858</v>
+      </c>
+      <c r="CW4">
+        <v>0.01128717985700993</v>
+      </c>
+      <c r="CX4">
+        <v>0.001441112984090995</v>
+      </c>
+      <c r="CY4">
+        <v>0.01128522535649126</v>
+      </c>
+      <c r="CZ4">
+        <v>0.05992353122463798</v>
+      </c>
+      <c r="DA4">
+        <v>0.01203139931542508</v>
+      </c>
+      <c r="DB4">
+        <v>0.01073393340196734</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0.04677868782182634</v>
+      </c>
+      <c r="DE4">
+        <v>0.0003234510186764447</v>
+      </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:109">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1091,108 +2123,315 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.008087482466012283</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.03589151776070409</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01028099953449402</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.04663127412527639</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0310071601922301</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.02129902562668653</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.02096694906704294</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.01406245661937386</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.06412407447864253</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.002906771869353844</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.185818808881694</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.04871676475032777</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.04430018125180745</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.03904994821322714</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.01924216526089544</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.102163669484214</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.06513177586087406</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.02260727494470868</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.08923626999087748</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.00698296145213305</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0002736373332601571</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.02713006746951722</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.02570247739546419</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.003005338686255747</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0002891979281671223</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>2.587455597400402E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0007824118291022542</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.001674930390942709</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.01360359888106929</v>
+        <v>0.1325323395351109</v>
       </c>
       <c r="AL5">
-        <v>0.02714656825113529</v>
+        <v>0.004864882280954302</v>
       </c>
       <c r="AM5">
-        <v>0.02185836544853649</v>
+        <v>0.1628777027388848</v>
       </c>
       <c r="AN5">
+        <v>0.06105021486346239</v>
+      </c>
+      <c r="AO5">
+        <v>0.004100206920334764</v>
+      </c>
+      <c r="AP5">
+        <v>0.001853916173101088</v>
+      </c>
+      <c r="AQ5">
+        <v>0.003488875741443759</v>
+      </c>
+      <c r="AR5">
+        <v>0.04662865627051958</v>
+      </c>
+      <c r="AS5">
+        <v>0.1447878741607482</v>
+      </c>
+      <c r="AT5">
+        <v>0.01452117741742622</v>
+      </c>
+      <c r="AU5">
+        <v>0.01107656156570858</v>
+      </c>
+      <c r="AV5">
+        <v>0.02009504704054565</v>
+      </c>
+      <c r="AW5">
+        <v>0.0002136306700191716</v>
+      </c>
+      <c r="AX5">
+        <v>0.02608764964194545</v>
+      </c>
+      <c r="AY5">
+        <v>0.04674049386698234</v>
+      </c>
+      <c r="AZ5">
+        <v>0.09072946371098611</v>
+      </c>
+      <c r="BA5">
+        <v>0.01269374568729051</v>
+      </c>
+      <c r="BB5">
+        <v>0.01053938706552947</v>
+      </c>
+      <c r="BC5">
+        <v>0.00458136129851678</v>
+      </c>
+      <c r="BD5">
+        <v>0.004119785055959411</v>
+      </c>
+      <c r="BE5">
+        <v>0.0162505237688693</v>
+      </c>
+      <c r="BF5">
+        <v>0.04175162952168079</v>
+      </c>
+      <c r="BG5">
+        <v>0.08324923074689128</v>
+      </c>
+      <c r="BH5">
+        <v>0.003394300814017612</v>
+      </c>
+      <c r="BI5">
+        <v>0.006765240500081708</v>
+      </c>
+      <c r="BJ5">
+        <v>0.001836149309059315</v>
+      </c>
+      <c r="BK5">
+        <v>0.02688977347167686</v>
+      </c>
+      <c r="BL5">
+        <v>0.0103140350636184</v>
+      </c>
+      <c r="BM5">
+        <v>0.001788361921833168</v>
+      </c>
+      <c r="BN5">
+        <v>0.001162344836604694</v>
+      </c>
+      <c r="BO5">
+        <v>0.002068576411784349</v>
+      </c>
+      <c r="BP5">
+        <v>0.0009468619284134511</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:109">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1216,100 +2455,307 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01056684300114889</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0643803784916115</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.03987717990293639</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.03249231309403244</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.03435981154030692</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.004412706178914263</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01913270157320772</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.1023538220873647</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.06498523291085602</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.03832049850832754</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.1996662580571973</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.02136075469020678</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0275954485029892</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.04264595924631356</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.07001268557464088</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0682446260991556</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0009717792945400521</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.05179086440650139</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.03350532909749834</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0001019420505445156</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0006840676139905512</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.01324743289464963</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.008999713744705814</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>9.214119785461344E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0005196391919462233</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0003122216393682488</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>3.407966682693941E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>8.106924178325794E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.002294569059515467</v>
+        <v>0.1161661441144406</v>
       </c>
       <c r="AL6">
-        <v>0.0138767753164721</v>
+        <v>0.0318263780487636</v>
       </c>
       <c r="AM6">
-        <v>0.02173269579101003</v>
+        <v>0.1498037111140299</v>
       </c>
       <c r="AN6">
-        <v>0.01137913203372727</v>
+        <v>0.02805427748435154</v>
+      </c>
+      <c r="AO6">
+        <v>0.001397479206461265</v>
+      </c>
+      <c r="AP6">
+        <v>0.003317459590012129</v>
+      </c>
+      <c r="AQ6">
+        <v>0.01723225517137022</v>
+      </c>
+      <c r="AR6">
+        <v>0.06463179785350226</v>
+      </c>
+      <c r="AS6">
+        <v>0.05230958967876807</v>
+      </c>
+      <c r="AT6">
+        <v>0.01984435030327152</v>
+      </c>
+      <c r="AU6">
+        <v>0.002121184727181367</v>
+      </c>
+      <c r="AV6">
+        <v>0.03624989756603206</v>
+      </c>
+      <c r="AW6">
+        <v>0.03568307882735467</v>
+      </c>
+      <c r="AX6">
+        <v>0.00134108795462424</v>
+      </c>
+      <c r="AY6">
+        <v>0.1312495892877796</v>
+      </c>
+      <c r="AZ6">
+        <v>0.05652823020521539</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0.01705238187086229</v>
+      </c>
+      <c r="BC6">
+        <v>0.0006974013480982825</v>
+      </c>
+      <c r="BD6">
+        <v>0.01243255600748684</v>
+      </c>
+      <c r="BE6">
+        <v>0.02820324927535911</v>
+      </c>
+      <c r="BF6">
+        <v>0.08588493801094844</v>
+      </c>
+      <c r="BG6">
+        <v>0.01754671476273854</v>
+      </c>
+      <c r="BH6">
+        <v>0.005899113910139746</v>
+      </c>
+      <c r="BI6">
+        <v>0.01316919201003419</v>
+      </c>
+      <c r="BJ6">
+        <v>0.02115170724467171</v>
+      </c>
+      <c r="BK6">
+        <v>0.03725631842280568</v>
+      </c>
+      <c r="BL6">
+        <v>0.001423755320741438</v>
+      </c>
+      <c r="BM6">
+        <v>0.0007595643468281725</v>
+      </c>
+      <c r="BN6">
+        <v>0.00793215149035458</v>
+      </c>
+      <c r="BO6">
+        <v>0.0006334323943685162</v>
+      </c>
+      <c r="BP6">
+        <v>0.00220101245140412</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1319,15 +2765,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN6"/>
+  <dimension ref="A1:DE6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:109">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1446,10 +2892,217 @@
       <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:109">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1458,97 +3111,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.00296293661419971</v>
+        <v>0.0331727256086372</v>
       </c>
       <c r="E2">
-        <v>0.009294645508447311</v>
+        <v>0.1329569440867535</v>
       </c>
       <c r="F2">
-        <v>0.02896005284140523</v>
+        <v>0.1920565290974497</v>
       </c>
       <c r="G2">
-        <v>0.03140761505500493</v>
+        <v>0.329724121905039</v>
       </c>
       <c r="H2">
-        <v>0.07855723248499097</v>
+        <v>0.3415023773940294</v>
       </c>
       <c r="I2">
-        <v>0.07905166131752644</v>
+        <v>0.3423356763147831</v>
       </c>
       <c r="J2">
-        <v>0.1082930310377416</v>
+        <v>0.3530189471049074</v>
       </c>
       <c r="K2">
-        <v>0.1100140812161054</v>
+        <v>0.3651989958609316</v>
       </c>
       <c r="L2">
-        <v>0.136984768047669</v>
+        <v>0.4614987351440198</v>
       </c>
       <c r="M2">
-        <v>0.2060956104303721</v>
+        <v>0.5569579772251876</v>
       </c>
       <c r="N2">
-        <v>0.2327581002259902</v>
+        <v>0.5613217811115512</v>
       </c>
       <c r="O2">
-        <v>0.4213329202453533</v>
+        <v>0.5640265702022508</v>
       </c>
       <c r="P2">
-        <v>0.5056431505266057</v>
+        <v>0.569883712194018</v>
       </c>
       <c r="Q2">
-        <v>0.523042744412935</v>
+        <v>0.6301315654481839</v>
       </c>
       <c r="R2">
-        <v>0.6111975695337972</v>
+        <v>0.6385519352409165</v>
       </c>
       <c r="S2">
-        <v>0.6795717782706476</v>
+        <v>0.7406996936236131</v>
       </c>
       <c r="T2">
-        <v>0.758402036931175</v>
+        <v>0.7837404210505203</v>
       </c>
       <c r="U2">
-        <v>0.7718787648939732</v>
+        <v>0.7915135536564195</v>
       </c>
       <c r="V2">
-        <v>0.8091191299524189</v>
+        <v>0.7938406070232732</v>
       </c>
       <c r="W2">
-        <v>0.8810524772229085</v>
+        <v>0.7938406070232732</v>
       </c>
       <c r="X2">
-        <v>0.8969638247652779</v>
+        <v>0.8023082677377334</v>
       </c>
       <c r="Y2">
-        <v>0.9003953939939575</v>
+        <v>0.826314599463474</v>
       </c>
       <c r="Z2">
-        <v>0.9230279987164569</v>
+        <v>0.9190144953431966</v>
       </c>
       <c r="AA2">
-        <v>0.9502649683813822</v>
+        <v>0.9228998066453776</v>
       </c>
       <c r="AB2">
-        <v>0.9536856491176854</v>
+        <v>0.9292189025318449</v>
       </c>
       <c r="AC2">
-        <v>0.9542111605908271</v>
+        <v>0.9348352938578245</v>
       </c>
       <c r="AD2">
-        <v>0.9550913675925103</v>
+        <v>0.9791004917840012</v>
       </c>
       <c r="AE2">
-        <v>0.9554359537008265</v>
+        <v>0.9951090837920284</v>
       </c>
       <c r="AF2">
-        <v>0.9554359537008265</v>
+        <v>0.9952863650257761</v>
       </c>
       <c r="AG2">
-        <v>0.9570332586212679</v>
+        <v>0.9952887312111474</v>
       </c>
       <c r="AH2">
-        <v>0.9699645162173891</v>
+        <v>0.9989719857559577</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -1568,10 +3221,217 @@
       <c r="AN2">
         <v>1</v>
       </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
+        <v>1</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>1</v>
+      </c>
+      <c r="BV2">
+        <v>1</v>
+      </c>
+      <c r="BW2">
+        <v>1</v>
+      </c>
+      <c r="BX2">
+        <v>1</v>
+      </c>
+      <c r="BY2">
+        <v>1</v>
+      </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>1</v>
+      </c>
+      <c r="CD2">
+        <v>1</v>
+      </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2">
+        <v>1</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>1</v>
+      </c>
+      <c r="CM2">
+        <v>1</v>
+      </c>
+      <c r="CN2">
+        <v>1</v>
+      </c>
+      <c r="CO2">
+        <v>1</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>1</v>
+      </c>
+      <c r="CR2">
+        <v>1</v>
+      </c>
+      <c r="CS2">
+        <v>1</v>
+      </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
+      <c r="CX2">
+        <v>1</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>1</v>
+      </c>
+      <c r="DA2">
+        <v>1</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DD2">
+        <v>1</v>
+      </c>
+      <c r="DE2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:109">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1592,108 +3452,315 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01048226010694344</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01837904966646507</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03336721874952016</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1189760333685846</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1220436900819209</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2186704708436478</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.2218273405672335</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2223170711702527</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.3086236687802528</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.3105150209942366</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.447133925808858</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.5231610771298467</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.5273243175949629</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.5724520040116526</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.6084081144984114</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.7418168444538543</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.7905890183799994</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.8207260067306696</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.9017212243705526</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.9107984283471398</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.9111978229588267</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.9246046929045197</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.9411180286653509</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.94357009548707</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.943588314331205</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.9440085595566549</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.9464299820464303</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.9464478942688545</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.9468706707583283</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.9541609766873836</v>
+        <v>0.08502288591113299</v>
       </c>
       <c r="AL3">
-        <v>0.9777581013464701</v>
+        <v>0.0905560904271014</v>
       </c>
       <c r="AM3">
-        <v>0.9999999999999998</v>
+        <v>0.1928772542931135</v>
       </c>
       <c r="AN3">
-        <v>0.9999999999999998</v>
+        <v>0.3016159877075454</v>
+      </c>
+      <c r="AO3">
+        <v>0.3214780161436065</v>
+      </c>
+      <c r="AP3">
+        <v>0.3234839691520646</v>
+      </c>
+      <c r="AQ3">
+        <v>0.3238440164017451</v>
+      </c>
+      <c r="AR3">
+        <v>0.3683731571642115</v>
+      </c>
+      <c r="AS3">
+        <v>0.5300411441276811</v>
+      </c>
+      <c r="AT3">
+        <v>0.5340609197175626</v>
+      </c>
+      <c r="AU3">
+        <v>0.5665373807116119</v>
+      </c>
+      <c r="AV3">
+        <v>0.5747788725471898</v>
+      </c>
+      <c r="AW3">
+        <v>0.5749566168884803</v>
+      </c>
+      <c r="AX3">
+        <v>0.6062426839165292</v>
+      </c>
+      <c r="AY3">
+        <v>0.6188259439668143</v>
+      </c>
+      <c r="AZ3">
+        <v>0.7315114396156663</v>
+      </c>
+      <c r="BA3">
+        <v>0.7648549916440602</v>
+      </c>
+      <c r="BB3">
+        <v>0.7648814191414144</v>
+      </c>
+      <c r="BC3">
+        <v>0.7649078466387685</v>
+      </c>
+      <c r="BD3">
+        <v>0.7663453148045825</v>
+      </c>
+      <c r="BE3">
+        <v>0.7663453148045825</v>
+      </c>
+      <c r="BF3">
+        <v>0.8157917515103711</v>
+      </c>
+      <c r="BG3">
+        <v>0.9386243595641952</v>
+      </c>
+      <c r="BH3">
+        <v>0.9392735945851871</v>
+      </c>
+      <c r="BI3">
+        <v>0.9458287070906141</v>
+      </c>
+      <c r="BJ3">
+        <v>0.9487054155298783</v>
+      </c>
+      <c r="BK3">
+        <v>0.9819716018008205</v>
+      </c>
+      <c r="BL3">
+        <v>0.9908128842664128</v>
+      </c>
+      <c r="BM3">
+        <v>0.9912580341529207</v>
+      </c>
+      <c r="BN3">
+        <v>0.9932170155230687</v>
+      </c>
+      <c r="BO3">
+        <v>0.996845883791351</v>
+      </c>
+      <c r="BP3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BQ3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BR3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BS3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BT3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BU3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BV3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BW3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BX3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BY3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BZ3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CA3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CB3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CC3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CD3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CE3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CF3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CG3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CH3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CI3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CJ3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CK3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CL3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CM3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CN3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CO3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CP3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CQ3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CR3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CS3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CT3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CU3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CV3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CW3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CX3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CY3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CZ3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DA3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DB3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DC3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DD3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DE3">
+        <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:109">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1705,117 +3772,324 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01057104019376556</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0314599550285458</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.03393923873462786</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.09534099573802549</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1116997329065389</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.146876978879728</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1588169516316106</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1697923162068921</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2339558989104371</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2503622709613447</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4198587924790774</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.468708786600145</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.4816202282836743</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.5264648285372562</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.5651654691836157</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.7077752080469072</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.7627450294200246</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.7954564402014613</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.8836898322444577</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.9002198027570568</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.902331063827814</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.9202902141609801</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.9398826462399511</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.9416933484401974</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.9416933484401974</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.9416933484401974</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.9427114691199285</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.9429763987889994</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.9455534233551798</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.9550197001200469</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.9790608601530464</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.9999999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0.07477794854000901</v>
+      </c>
+      <c r="CA4">
+        <v>0.08736780394104406</v>
+      </c>
+      <c r="CB4">
+        <v>0.3853949184291217</v>
+      </c>
+      <c r="CC4">
+        <v>0.3872290083515605</v>
+      </c>
+      <c r="CD4">
+        <v>0.3909294359779782</v>
+      </c>
+      <c r="CE4">
+        <v>0.4100363083013419</v>
+      </c>
+      <c r="CF4">
+        <v>0.4267295550369524</v>
+      </c>
+      <c r="CG4">
+        <v>0.4739747743563115</v>
+      </c>
+      <c r="CH4">
+        <v>0.5596264646720545</v>
+      </c>
+      <c r="CI4">
+        <v>0.5770003123957766</v>
+      </c>
+      <c r="CJ4">
+        <v>0.5838843112644182</v>
+      </c>
+      <c r="CK4">
+        <v>0.668057778982636</v>
+      </c>
+      <c r="CL4">
+        <v>0.675592174646512</v>
+      </c>
+      <c r="CM4">
+        <v>0.6890273278137176</v>
+      </c>
+      <c r="CN4">
+        <v>0.6926058322089078</v>
+      </c>
+      <c r="CO4">
+        <v>0.70111206318891</v>
+      </c>
+      <c r="CP4">
+        <v>0.7144427401952023</v>
+      </c>
+      <c r="CQ4">
+        <v>0.7349223480393346</v>
+      </c>
+      <c r="CR4">
+        <v>0.7352281118003515</v>
+      </c>
+      <c r="CS4">
+        <v>0.7387976530894513</v>
+      </c>
+      <c r="CT4">
+        <v>0.740703760571213</v>
+      </c>
+      <c r="CU4">
+        <v>0.8093952797485759</v>
+      </c>
+      <c r="CV4">
+        <v>0.8461954790198746</v>
+      </c>
+      <c r="CW4">
+        <v>0.8574826588768845</v>
+      </c>
+      <c r="CX4">
+        <v>0.8589237718609755</v>
+      </c>
+      <c r="CY4">
+        <v>0.8702089972174667</v>
+      </c>
+      <c r="CZ4">
+        <v>0.9301325284421047</v>
+      </c>
+      <c r="DA4">
+        <v>0.9421639277575298</v>
+      </c>
+      <c r="DB4">
+        <v>0.9528978611594972</v>
+      </c>
+      <c r="DC4">
+        <v>0.9528978611594972</v>
+      </c>
+      <c r="DD4">
+        <v>0.9996765489813235</v>
+      </c>
+      <c r="DE4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:109">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1836,108 +4110,315 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.008087482466012283</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.04397900022671638</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0542599997612104</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1008912738864868</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1318984340787169</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1531974597054034</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.1741644087724463</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1882268653918202</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.2523509398704628</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.2552577117398166</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.4410765206215106</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.4897932853718384</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.5340934666236458</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.5731434148368729</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.5923855800977683</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.6945492495819823</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.7596810254428563</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.782288300387565</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.8715245703784426</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.8785075318305756</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.8787811691638358</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.9059112366333529</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.9316137140288171</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.9346190527150728</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.93490825064324</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.934934125199214</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.9357165370283163</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.9357165370283163</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.9373914674192589</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.9509950663003283</v>
+        <v>0.1325323395351109</v>
       </c>
       <c r="AL5">
-        <v>0.9781416345514635</v>
+        <v>0.1373972218160652</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0.30027492455495</v>
       </c>
       <c r="AN5">
+        <v>0.3613251394184124</v>
+      </c>
+      <c r="AO5">
+        <v>0.3654253463387471</v>
+      </c>
+      <c r="AP5">
+        <v>0.3672792625118482</v>
+      </c>
+      <c r="AQ5">
+        <v>0.370768138253292</v>
+      </c>
+      <c r="AR5">
+        <v>0.4173967945238116</v>
+      </c>
+      <c r="AS5">
+        <v>0.5621846686845597</v>
+      </c>
+      <c r="AT5">
+        <v>0.5767058461019859</v>
+      </c>
+      <c r="AU5">
+        <v>0.5877824076676945</v>
+      </c>
+      <c r="AV5">
+        <v>0.6078774547082402</v>
+      </c>
+      <c r="AW5">
+        <v>0.6080910853782594</v>
+      </c>
+      <c r="AX5">
+        <v>0.6341787350202048</v>
+      </c>
+      <c r="AY5">
+        <v>0.6809192288871871</v>
+      </c>
+      <c r="AZ5">
+        <v>0.7716486925981733</v>
+      </c>
+      <c r="BA5">
+        <v>0.7843424382854638</v>
+      </c>
+      <c r="BB5">
+        <v>0.7948818253509933</v>
+      </c>
+      <c r="BC5">
+        <v>0.7994631866495101</v>
+      </c>
+      <c r="BD5">
+        <v>0.8035829717054696</v>
+      </c>
+      <c r="BE5">
+        <v>0.8198334954743388</v>
+      </c>
+      <c r="BF5">
+        <v>0.8615851249960196</v>
+      </c>
+      <c r="BG5">
+        <v>0.9448343557429109</v>
+      </c>
+      <c r="BH5">
+        <v>0.9482286565569285</v>
+      </c>
+      <c r="BI5">
+        <v>0.9549938970570102</v>
+      </c>
+      <c r="BJ5">
+        <v>0.9568300463660695</v>
+      </c>
+      <c r="BK5">
+        <v>0.9837198198377464</v>
+      </c>
+      <c r="BL5">
+        <v>0.9940338549013648</v>
+      </c>
+      <c r="BM5">
+        <v>0.9958222168231979</v>
+      </c>
+      <c r="BN5">
+        <v>0.9969845616598026</v>
+      </c>
+      <c r="BO5">
+        <v>0.999053138071587</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>1</v>
+      </c>
+      <c r="BS5">
+        <v>1</v>
+      </c>
+      <c r="BT5">
+        <v>1</v>
+      </c>
+      <c r="BU5">
+        <v>1</v>
+      </c>
+      <c r="BV5">
+        <v>1</v>
+      </c>
+      <c r="BW5">
+        <v>1</v>
+      </c>
+      <c r="BX5">
+        <v>1</v>
+      </c>
+      <c r="BY5">
+        <v>1</v>
+      </c>
+      <c r="BZ5">
+        <v>1</v>
+      </c>
+      <c r="CA5">
+        <v>1</v>
+      </c>
+      <c r="CB5">
+        <v>1</v>
+      </c>
+      <c r="CC5">
+        <v>1</v>
+      </c>
+      <c r="CD5">
+        <v>1</v>
+      </c>
+      <c r="CE5">
+        <v>1</v>
+      </c>
+      <c r="CF5">
+        <v>1</v>
+      </c>
+      <c r="CG5">
+        <v>1</v>
+      </c>
+      <c r="CH5">
+        <v>1</v>
+      </c>
+      <c r="CI5">
+        <v>1</v>
+      </c>
+      <c r="CJ5">
+        <v>1</v>
+      </c>
+      <c r="CK5">
+        <v>1</v>
+      </c>
+      <c r="CL5">
+        <v>1</v>
+      </c>
+      <c r="CM5">
+        <v>1</v>
+      </c>
+      <c r="CN5">
+        <v>1</v>
+      </c>
+      <c r="CO5">
+        <v>1</v>
+      </c>
+      <c r="CP5">
+        <v>1</v>
+      </c>
+      <c r="CQ5">
+        <v>1</v>
+      </c>
+      <c r="CR5">
+        <v>1</v>
+      </c>
+      <c r="CS5">
+        <v>1</v>
+      </c>
+      <c r="CT5">
+        <v>1</v>
+      </c>
+      <c r="CU5">
+        <v>1</v>
+      </c>
+      <c r="CV5">
+        <v>1</v>
+      </c>
+      <c r="CW5">
+        <v>1</v>
+      </c>
+      <c r="CX5">
+        <v>1</v>
+      </c>
+      <c r="CY5">
+        <v>1</v>
+      </c>
+      <c r="CZ5">
+        <v>1</v>
+      </c>
+      <c r="DA5">
+        <v>1</v>
+      </c>
+      <c r="DB5">
+        <v>1</v>
+      </c>
+      <c r="DC5">
+        <v>1</v>
+      </c>
+      <c r="DD5">
+        <v>1</v>
+      </c>
+      <c r="DE5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:109">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1961,99 +4442,306 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01056684300114889</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0749472214927604</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1148244013956968</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1473167144897292</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1816765260300361</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.1860892322089504</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2052219337821581</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.3075757558695228</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.3725609887803789</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.4108814872887064</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.6105477453459037</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.6319085000361105</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.6595039485390998</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.7021499077854133</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.7721625933600542</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.8404072194592098</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.8413789987537499</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.8931698631602513</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.9266751922577496</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.9267771343082941</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.9274612019222847</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.9407086348169342</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.94970834856164</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.9498004897594946</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.9503201289514408</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.9506323505908091</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.9506357585574918</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.9507168277992751</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.9530113968587905</v>
+        <v>0.1161661441144406</v>
       </c>
       <c r="AL6">
-        <v>0.9668881721752627</v>
+        <v>0.1479925221632042</v>
       </c>
       <c r="AM6">
-        <v>0.9886208679662727</v>
+        <v>0.2977962332772341</v>
       </c>
       <c r="AN6">
+        <v>0.3258505107615857</v>
+      </c>
+      <c r="AO6">
+        <v>0.3272479899680469</v>
+      </c>
+      <c r="AP6">
+        <v>0.3305654495580591</v>
+      </c>
+      <c r="AQ6">
+        <v>0.3477977047294293</v>
+      </c>
+      <c r="AR6">
+        <v>0.4124295025829315</v>
+      </c>
+      <c r="AS6">
+        <v>0.4647390922616996</v>
+      </c>
+      <c r="AT6">
+        <v>0.4845834425649712</v>
+      </c>
+      <c r="AU6">
+        <v>0.4867046272921525</v>
+      </c>
+      <c r="AV6">
+        <v>0.5229545248581846</v>
+      </c>
+      <c r="AW6">
+        <v>0.5586376036855393</v>
+      </c>
+      <c r="AX6">
+        <v>0.5599786916401636</v>
+      </c>
+      <c r="AY6">
+        <v>0.6912282809279432</v>
+      </c>
+      <c r="AZ6">
+        <v>0.7477565111331586</v>
+      </c>
+      <c r="BA6">
+        <v>0.7477565111331586</v>
+      </c>
+      <c r="BB6">
+        <v>0.7648088930040209</v>
+      </c>
+      <c r="BC6">
+        <v>0.7655062943521191</v>
+      </c>
+      <c r="BD6">
+        <v>0.777938850359606</v>
+      </c>
+      <c r="BE6">
+        <v>0.8061420996349651</v>
+      </c>
+      <c r="BF6">
+        <v>0.8920270376459135</v>
+      </c>
+      <c r="BG6">
+        <v>0.909573752408652</v>
+      </c>
+      <c r="BH6">
+        <v>0.9154728663187918</v>
+      </c>
+      <c r="BI6">
+        <v>0.928642058328826</v>
+      </c>
+      <c r="BJ6">
+        <v>0.9497937655734977</v>
+      </c>
+      <c r="BK6">
+        <v>0.9870500839963033</v>
+      </c>
+      <c r="BL6">
+        <v>0.9884738393170448</v>
+      </c>
+      <c r="BM6">
+        <v>0.989233403663873</v>
+      </c>
+      <c r="BN6">
+        <v>0.9971655551542276</v>
+      </c>
+      <c r="BO6">
+        <v>0.9977989875485961</v>
+      </c>
+      <c r="BP6">
+        <v>1</v>
+      </c>
+      <c r="BQ6">
+        <v>1</v>
+      </c>
+      <c r="BR6">
+        <v>1</v>
+      </c>
+      <c r="BS6">
+        <v>1</v>
+      </c>
+      <c r="BT6">
+        <v>1</v>
+      </c>
+      <c r="BU6">
+        <v>1</v>
+      </c>
+      <c r="BV6">
+        <v>1</v>
+      </c>
+      <c r="BW6">
+        <v>1</v>
+      </c>
+      <c r="BX6">
+        <v>1</v>
+      </c>
+      <c r="BY6">
+        <v>1</v>
+      </c>
+      <c r="BZ6">
+        <v>1</v>
+      </c>
+      <c r="CA6">
+        <v>1</v>
+      </c>
+      <c r="CB6">
+        <v>1</v>
+      </c>
+      <c r="CC6">
+        <v>1</v>
+      </c>
+      <c r="CD6">
+        <v>1</v>
+      </c>
+      <c r="CE6">
+        <v>1</v>
+      </c>
+      <c r="CF6">
+        <v>1</v>
+      </c>
+      <c r="CG6">
+        <v>1</v>
+      </c>
+      <c r="CH6">
+        <v>1</v>
+      </c>
+      <c r="CI6">
+        <v>1</v>
+      </c>
+      <c r="CJ6">
+        <v>1</v>
+      </c>
+      <c r="CK6">
+        <v>1</v>
+      </c>
+      <c r="CL6">
+        <v>1</v>
+      </c>
+      <c r="CM6">
+        <v>1</v>
+      </c>
+      <c r="CN6">
+        <v>1</v>
+      </c>
+      <c r="CO6">
+        <v>1</v>
+      </c>
+      <c r="CP6">
+        <v>1</v>
+      </c>
+      <c r="CQ6">
+        <v>1</v>
+      </c>
+      <c r="CR6">
+        <v>1</v>
+      </c>
+      <c r="CS6">
+        <v>1</v>
+      </c>
+      <c r="CT6">
+        <v>1</v>
+      </c>
+      <c r="CU6">
+        <v>1</v>
+      </c>
+      <c r="CV6">
+        <v>1</v>
+      </c>
+      <c r="CW6">
+        <v>1</v>
+      </c>
+      <c r="CX6">
+        <v>1</v>
+      </c>
+      <c r="CY6">
+        <v>1</v>
+      </c>
+      <c r="CZ6">
+        <v>1</v>
+      </c>
+      <c r="DA6">
+        <v>1</v>
+      </c>
+      <c r="DB6">
+        <v>1</v>
+      </c>
+      <c r="DC6">
+        <v>1</v>
+      </c>
+      <c r="DD6">
+        <v>1</v>
+      </c>
+      <c r="DE6">
         <v>1</v>
       </c>
     </row>
@@ -2072,302 +4760,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>0.02896005284140523</v>
+        <v>0.1329569440867535</v>
       </c>
       <c r="F2">
-        <v>0.5056431505266057</v>
+        <v>0.5569579772251876</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="L2">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E3">
-        <v>0.01048226010694344</v>
+        <v>0.08502288591113299</v>
       </c>
       <c r="F3">
-        <v>0.5231610771298467</v>
+        <v>0.5300411441276811</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="L3">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="E4">
-        <v>0.01057104019376556</v>
+        <v>0.08736780394104406</v>
       </c>
       <c r="F4">
-        <v>0.5264648285372562</v>
+        <v>0.5596264646720545</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="L4">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>0.1325323395351109</v>
+      </c>
+      <c r="F5">
+        <v>0.5621846686845597</v>
+      </c>
+      <c r="G5">
         <v>8</v>
-      </c>
-      <c r="D5">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>0.04397900022671638</v>
-      </c>
-      <c r="F5">
-        <v>0.5340934666236458</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="L5">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E6">
-        <v>0.01056684300114889</v>
+        <v>0.1161661441144406</v>
       </c>
       <c r="F6">
-        <v>0.6105477453459037</v>
+        <v>0.5229545248581846</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="L6">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P6" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2385,72 +5058,72 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>0.02896005284140523</v>
+        <v>0.1329569440867535</v>
       </c>
       <c r="F2">
-        <v>0.758402036931175</v>
+        <v>0.7406996936236131</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -2459,48 +5132,45 @@
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="L2">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>0.01048226010694344</v>
+        <v>0.08502288591113299</v>
       </c>
       <c r="F3">
-        <v>0.7418168444538543</v>
+        <v>0.7315114396156663</v>
       </c>
       <c r="G3">
         <v>15</v>
@@ -2509,98 +5179,92 @@
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="L3">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="E4">
-        <v>0.01057104019376556</v>
+        <v>0.08736780394104406</v>
       </c>
       <c r="F4">
-        <v>0.7077752080469072</v>
+        <v>0.70111206318891</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="L4">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E5">
-        <v>0.04397900022671638</v>
+        <v>0.1325323395351109</v>
       </c>
       <c r="F5">
-        <v>0.7596810254428563</v>
+        <v>0.7716486925981733</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -2609,78 +5273,72 @@
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="L5">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E6">
-        <v>0.01056684300114889</v>
+        <v>0.1161661441144406</v>
       </c>
       <c r="F6">
-        <v>0.7021499077854133</v>
+        <v>0.7477565111331586</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="L6">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P6" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2698,302 +5356,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>0.02896005284140523</v>
+        <v>0.1329569440867535</v>
       </c>
       <c r="F2">
-        <v>0.8091191299524189</v>
+        <v>0.8023082677377334</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="L2">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E3">
-        <v>0.01048226010694344</v>
+        <v>0.08502288591113299</v>
       </c>
       <c r="F3">
-        <v>0.8207260067306696</v>
+        <v>0.8157917515103711</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="L3">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <v>0.01057104019376556</v>
+        <v>0.08736780394104406</v>
       </c>
       <c r="F4">
-        <v>0.8836898322444577</v>
+        <v>0.8093952797485759</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="L4">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>0.04397900022671638</v>
+        <v>0.1325323395351109</v>
       </c>
       <c r="F5">
-        <v>0.8715245703784426</v>
+        <v>0.8035829717054696</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="L5">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E6">
-        <v>0.01056684300114889</v>
+        <v>0.1161661441144406</v>
       </c>
       <c r="F6">
-        <v>0.8404072194592098</v>
+        <v>0.8061420996349651</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="L6">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P6" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3011,302 +5654,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>0.02896005284140523</v>
+        <v>0.1329569440867535</v>
       </c>
       <c r="F2">
-        <v>0.9003953939939575</v>
+        <v>0.9190144953431966</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="L2">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E3">
-        <v>0.01048226010694344</v>
+        <v>0.08502288591113299</v>
       </c>
       <c r="F3">
-        <v>0.9017212243705526</v>
+        <v>0.9386243595641952</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="L3">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="E4">
-        <v>0.01057104019376556</v>
+        <v>0.08736780394104406</v>
       </c>
       <c r="F4">
-        <v>0.9002198027570568</v>
+        <v>0.9301325284421047</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="L4">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>0.04397900022671638</v>
+        <v>0.1325323395351109</v>
       </c>
       <c r="F5">
-        <v>0.9059112366333529</v>
+        <v>0.9448343557429109</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="L5">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E6">
-        <v>0.01056684300114889</v>
+        <v>0.1161661441144406</v>
       </c>
       <c r="F6">
-        <v>0.9266751922577496</v>
+        <v>0.909573752408652</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="L6">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P6" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
